--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>duracao_horas</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>num_eixos</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>coeficientes</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>coef_deslocamento</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>coef_carga_descarga</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valor_frete</t>
         </is>
@@ -487,18 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>357.52</v>
+        <v>442.77</v>
       </c>
       <c r="E2" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>{'deslocamento': 4.4505, 'carga_descarga': 495.6}</t>
-        </is>
-      </c>
       <c r="G2" t="n">
-        <v>2086.74</v>
+        <v>4.4505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>495.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2466.15</v>
       </c>
     </row>
     <row r="3">
@@ -518,18 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1782.92</v>
+        <v>2358.98</v>
       </c>
       <c r="E3" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>{'deslocamento': 5.1213, 'carga_descarga': 520.16}</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>9651.030000000001</v>
+        <v>5.1213</v>
+      </c>
+      <c r="H3" t="n">
+        <v>520.16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12601.2</v>
       </c>
     </row>
     <row r="4">
@@ -549,18 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3117.21</v>
+        <v>4329.69</v>
       </c>
       <c r="E4" t="n">
+        <v>67.31999999999999</v>
+      </c>
+      <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>{'deslocamento': 5.5455, 'carga_descarga': 512.07}</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>17798.56</v>
+        <v>5.5455</v>
+      </c>
+      <c r="H4" t="n">
+        <v>512.0700000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24522.37</v>
       </c>
     </row>
   </sheetData>
